--- a/Team-Data/2014-15/1-4-2014-15.xlsx
+++ b/Team-Data/2014-15/1-4-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -756,16 +823,16 @@
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -774,13 +841,13 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -789,22 +856,22 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -932,10 +999,10 @@
         <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -983,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,25 +1115,25 @@
         <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>7.1</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.745</v>
@@ -1075,16 +1142,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1093,61 +1160,61 @@
         <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>20.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
         <v>15</v>
       </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>17</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,19 +1226,19 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
         <v>13</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>14</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
@@ -1180,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-4.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1335,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
         <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
@@ -1484,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1499,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
         <v>12</v>
@@ -1514,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L7" t="n">
         <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P7" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R7" t="n">
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V7" t="n">
         <v>13.7</v>
@@ -1636,31 +1703,31 @@
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA7" t="n">
         <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1675,25 +1742,25 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1714,10 +1781,10 @@
         <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -1761,64 +1828,64 @@
         <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.735</v>
+        <v>0.706</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J8" t="n">
         <v>86.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -1827,25 +1894,25 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.1</v>
+        <v>109.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1866,25 +1933,25 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
         <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2036,7 +2103,7 @@
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
@@ -2069,16 +2136,16 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2087,13 +2154,13 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303</v>
+        <v>0.281</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.422</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.676</v>
+        <v>0.674</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>7.4</v>
@@ -2188,25 +2255,25 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>27</v>
@@ -2215,10 +2282,10 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2236,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2263,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>10</v>
@@ -2272,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.431</v>
@@ -2513,22 +2580,22 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
         <v>31.9</v>
@@ -2537,37 +2604,37 @@
         <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2576,16 +2643,16 @@
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K13" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P13" t="n">
         <v>20.6</v>
@@ -2710,19 +2777,19 @@
         <v>0.736</v>
       </c>
       <c r="R13" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S13" t="n">
         <v>34.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
         <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W13" t="n">
         <v>5.7</v>
@@ -2731,7 +2798,7 @@
         <v>4.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
         <v>20.9</v>
@@ -2740,13 +2807,13 @@
         <v>20.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-1.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2761,13 +2828,13 @@
         <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2776,10 +2843,10 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2788,10 +2855,10 @@
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>6</v>
@@ -2806,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
@@ -2940,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
@@ -2964,19 +3031,19 @@
         <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3035,13 +3102,13 @@
         <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.303</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,34 +3117,34 @@
         <v>38.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M15" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.363</v>
       </c>
       <c r="O15" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T15" t="n">
         <v>42.5</v>
@@ -3089,7 +3156,7 @@
         <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
@@ -3098,37 +3165,37 @@
         <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF15" t="n">
         <v>24</v>
       </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -3140,28 +3207,28 @@
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
@@ -3176,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BB15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
@@ -3337,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3349,25 +3416,25 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY16" t="n">
         <v>23</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>24</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>15</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.412</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J17" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.464</v>
       </c>
       <c r="L17" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.355</v>
@@ -3432,7 +3499,7 @@
         <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.73</v>
@@ -3441,10 +3508,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="T17" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="U17" t="n">
         <v>19.8</v>
@@ -3456,7 +3523,7 @@
         <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.3</v>
@@ -3468,22 +3535,22 @@
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
         <v>14</v>
@@ -3507,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,13 +3595,13 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.462</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
         <v>0.777</v>
       </c>
       <c r="R18" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
         <v>9</v>
@@ -3641,7 +3708,7 @@
         <v>4.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z18" t="n">
         <v>22.7</v>
@@ -3650,46 +3717,46 @@
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15</v>
       </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3704,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3719,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>26</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3907,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -3942,130 +4009,130 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
         <v>101.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
         <v>18</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>12</v>
@@ -4074,13 +4141,13 @@
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>13</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.353</v>
       </c>
       <c r="O21" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="Q21" t="n">
         <v>0.783</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>28.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
@@ -4190,19 +4257,19 @@
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4217,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4226,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
@@ -4244,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4271,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -4423,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4444,7 +4511,7 @@
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>11</v>
@@ -4453,13 +4520,13 @@
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
       </c>
       <c r="BC22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.361</v>
+        <v>0.351</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P23" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,10 +4639,10 @@
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4587,16 +4654,16 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,37 +4675,37 @@
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -4766,13 +4833,13 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,13 +4851,13 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4817,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -4852,88 +4919,88 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>0.556</v>
+        <v>0.543</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="J25" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M25" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P25" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
         <v>42.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.2</v>
+        <v>106.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>13</v>
@@ -4951,10 +5018,10 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -4978,34 +5045,34 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5136,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5187,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H27" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
@@ -5246,76 +5313,76 @@
         <v>15.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="O27" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="P27" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S27" t="n">
         <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA27" t="n">
         <v>25.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>102</v>
+        <v>102.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>7</v>
@@ -5345,7 +5412,7 @@
         <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -5398,70 +5465,70 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>49.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="O28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>19.5</v>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5494,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>10</v>
@@ -5506,22 +5573,22 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>10</v>
@@ -5530,13 +5597,13 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5548,10 +5615,10 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>0.706</v>
+        <v>0.727</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,7 +5665,7 @@
         <v>39.4</v>
       </c>
       <c r="J29" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.462</v>
@@ -5610,67 +5677,67 @@
         <v>24.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O29" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P29" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
         <v>21.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,13 +5755,13 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
@@ -5709,10 +5776,10 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW29" t="n">
         <v>16</v>
@@ -5724,16 +5791,16 @@
         <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,10 +5928,10 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
@@ -5873,19 +5940,19 @@
         <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5894,13 +5961,13 @@
         <v>23</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5912,10 +5979,10 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
         <v>9</v>
@@ -6034,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>13</v>
@@ -6088,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6097,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-4-2014-15</t>
+          <t>2015-01-04</t>
         </is>
       </c>
     </row>
